--- a/ExampleEndowmentDiscrete_EXA4_8_1.xlsx
+++ b/ExampleEndowmentDiscrete_EXA4_8_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelkoller/Documents/Vorles/AKLV/aklv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6054DAFE-4727-CE42-A0EF-0B442A6A3167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76F8A61-29F7-8243-9B2C-47ED56E8365F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14580" activeTab="2" xr2:uid="{C17C71EE-E2D6-0540-BB6E-14F0672FB8EC}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14580" activeTab="1" xr2:uid="{C17C71EE-E2D6-0540-BB6E-14F0672FB8EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Capital" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>Example Recursion Endowment</t>
   </si>
@@ -153,6 +153,69 @@
   <si>
     <t>V Market</t>
   </si>
+  <si>
+    <t>p_**</t>
+  </si>
+  <si>
+    <t>p_*t</t>
+  </si>
+  <si>
+    <t>p_t*</t>
+  </si>
+  <si>
+    <t>p_tt</t>
+  </si>
+  <si>
+    <t>q_x</t>
+  </si>
+  <si>
+    <t>1-q_x</t>
+  </si>
+  <si>
+    <t>p**</t>
+  </si>
+  <si>
+    <t>p*d</t>
+  </si>
+  <si>
+    <t>p*t</t>
+  </si>
+  <si>
+    <t>pd*</t>
+  </si>
+  <si>
+    <t>pdd</t>
+  </si>
+  <si>
+    <t>pdt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">healthy </t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">health </t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>1-qx-ix</t>
+  </si>
+  <si>
+    <t>1-rx-qx</t>
+  </si>
 </sst>
 </file>
 
@@ -160,10 +223,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.000%"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??????_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??????_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -181,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +275,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -226,25 +301,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -264,9 +341,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -304,7 +381,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -410,7 +487,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -552,7 +629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -560,20 +637,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AC6DD3-4BBD-3B4F-9EF9-B440B17FC746}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -601,8 +678,14 @@
       <c r="J4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>65</v>
       </c>
@@ -631,8 +714,14 @@
         <f>H5-I5*$I$42</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>A5-1</f>
         <v>64</v>
@@ -671,8 +760,14 @@
         <f t="shared" ref="J6:J40" si="3">H6-I6*$I$42</f>
         <v>96270.59904326692</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" ref="A7:A40" si="4">A6-1</f>
         <v>63</v>
@@ -712,8 +807,14 @@
         <f t="shared" si="3"/>
         <v>92592.779457913843</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="4"/>
         <v>62</v>
@@ -755,7 +856,7 @@
         <v>88965.008439050944</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="4"/>
         <v>61</v>
@@ -797,7 +898,7 @@
         <v>85386.288902746688</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -839,7 +940,7 @@
         <v>81856.051773479616</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="4"/>
         <v>59</v>
@@ -881,7 +982,7 @@
         <v>78374.066316715762</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="4"/>
         <v>58</v>
@@ -923,7 +1024,7 @@
         <v>74940.365338385556</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -965,7 +1066,7 @@
         <v>71555.182707149317</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -1007,7 +1108,7 @@
         <v>68218.901149226323</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -1049,7 +1150,7 @@
         <v>64932.008652355289</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -2115,10 +2216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACECF74-5516-734E-BA51-DAA6833A41CA}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2129,29 +2230,59 @@
     <col min="10" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -2185,8 +2316,20 @@
       <c r="L4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>65</v>
       </c>
@@ -2223,8 +2366,21 @@
       <c r="L5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="str">
+        <f>P2</f>
+        <v>healthy</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>A5-1</f>
         <v>64</v>
@@ -2272,8 +2428,22 @@
         <f>L5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" t="str">
+        <f>O5</f>
+        <v>disabled</v>
+      </c>
+      <c r="P6" t="str">
+        <f>P3</f>
+        <v>disabled</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" ref="A7:A40" si="3">A6-1</f>
         <v>63</v>
@@ -2299,31 +2469,45 @@
         <v>10000</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" ref="G7:G40" si="6">(G6*(1-B7-C7)+H6*C7)*E7</f>
+        <f>(G6*(1-B7-C7)+H6*C7)*E7</f>
         <v>204.74001258211899</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" ref="H7:H40" si="7">(H6*(1-D7-B7)+G6*D7)*E7+F7</f>
+        <f>(H6*(1-D7-B7)+G6*D7)*E7+F7</f>
         <v>19429.873382999685</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" ref="I7:I40" si="8">I6</f>
+        <f t="shared" ref="I7:I40" si="6">I6</f>
         <v>0</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" ref="J7:J40" si="9">$J$3+(J6*(1-B6-C6)+K6*C6)*E6</f>
+        <f t="shared" ref="J7:J40" si="7">$J$3+(J6*(1-B6-C6)+K6*C6)*E6</f>
         <v>1.9413349790497541</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" ref="K7:K40" si="10">$K$3+(J6*D6+K6*(1-B6-C6))*E6</f>
+        <f t="shared" ref="K7:K40" si="8">$K$3+(J6*D6+K6*(1-B6-C6))*E6</f>
         <v>1.9178846625207204</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" ref="L7:L40" si="11">L6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" ref="L7:L40" si="9">L6</f>
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" t="str">
+        <f>O6</f>
+        <v>disabled</v>
+      </c>
+      <c r="P7" t="str">
+        <f>P4</f>
+        <v>death</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -2349,427 +2533,427 @@
         <v>10000</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G7:G40" si="10">(G7*(1-B8-C8)+H7*C8)*E8</f>
         <v>537.15601826665727</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H7:H40" si="11">(H7*(1-D8-B8)+G7*D8)*E8+F8</f>
         <v>28351.539963814175</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.8301741828326321</v>
       </c>
       <c r="K8" s="5">
+        <f t="shared" si="8"/>
+        <v>2.769274180083193</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.6276112696993483E-2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>1.6248931924611125E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+      <c r="G9" s="19">
         <f t="shared" si="10"/>
-        <v>2.769274180083193</v>
-      </c>
-      <c r="L8" s="3">
+        <v>942.6608054169991</v>
+      </c>
+      <c r="H9" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="3"/>
-        <v>61</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>1.6276112696993483E-2</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>1.6248931924611125E-2</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E9">
+        <v>36817.391446374822</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="7"/>
+        <v>3.672014094226566</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="8"/>
+        <v>3.5660635244488708</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.4954397707459259E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>1.4203842646028836E-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="2"/>
         <v>0.96153846153846145</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="G9" s="3">
-        <f t="shared" si="6"/>
-        <v>942.6608054169991</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="7"/>
-        <v>36817.391446374822</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="9"/>
-        <v>3.672014094226566</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="G10" s="18">
         <f t="shared" si="10"/>
-        <v>3.5660635244488708</v>
-      </c>
-      <c r="L9" s="3">
+        <v>1382.8104902138398</v>
+      </c>
+      <c r="H10" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>1.4954397707459259E-2</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>1.4203842646028836E-2</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E10">
+        <v>44871.93224243704</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="7"/>
+        <v>4.4716599955848988</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="8"/>
+        <v>4.3173818742237451</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1.3743415351946633E-2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>1.2422644346174124E-2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="2"/>
         <v>0.96153846153846145</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="G10" s="3">
-        <f t="shared" si="6"/>
-        <v>1382.8104902138398</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="7"/>
-        <v>44871.93224243704</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="9"/>
-        <v>4.4716599955848988</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="G11" s="3">
         <f t="shared" si="10"/>
-        <v>4.3173818742237451</v>
-      </c>
-      <c r="L10" s="3">
+        <v>1830.8229266818612</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f t="shared" si="3"/>
-        <v>59</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>1.3743415351946633E-2</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>1.2422644346174124E-2</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E11">
+        <v>52553.114076908474</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="7"/>
+        <v>5.2332669917681223</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="8"/>
+        <v>5.0302832844589771</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1.2633888504649759E-2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>1.0871285480508988E-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="2"/>
         <v>0.96153846153846145</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="G11" s="3">
-        <f t="shared" si="6"/>
-        <v>1830.8229266818612</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="7"/>
-        <v>52553.114076908474</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="9"/>
-        <v>5.2332669917681223</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="G12" s="3">
         <f t="shared" si="10"/>
-        <v>5.0302832844589771</v>
-      </c>
-      <c r="L11" s="3">
+        <v>2268.3740589173212</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>1.2633888504649759E-2</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>1.0871285480508988E-2</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E12">
+        <v>59893.426820277571</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="7"/>
+        <v>5.9604061879313939</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="8"/>
+        <v>5.7102505689801575</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1.1617317272815902E-2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>9.5201083935590874E-3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="2"/>
         <v>0.96153846153846145</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="G12" s="3">
-        <f t="shared" si="6"/>
-        <v>2268.3740589173212</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="7"/>
-        <v>59893.426820277571</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="9"/>
-        <v>5.9604061879313939</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="G13" s="3">
         <f t="shared" si="10"/>
-        <v>5.7102505689801575</v>
-      </c>
-      <c r="L12" s="3">
+        <v>2683.2869098597735</v>
+      </c>
+      <c r="H13" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>1.1617317272815902E-2</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>9.5201083935590874E-3</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E13">
+        <v>66920.7941137983</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="7"/>
+        <v>6.6561380457331465</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="8"/>
+        <v>6.3615674383244487</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1.0685913880541168E-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>8.3432823472428114E-3</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="2"/>
         <v>0.96153846153846145</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="G13" s="3">
-        <f t="shared" si="6"/>
-        <v>2683.2869098597735</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="7"/>
-        <v>66920.7941137983</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" si="9"/>
-        <v>6.6561380457331465</v>
-      </c>
-      <c r="K13" s="5">
+      <c r="G14" s="3">
         <f t="shared" si="10"/>
-        <v>6.3615674383244487</v>
-      </c>
-      <c r="L13" s="3">
+        <v>3067.8511508747415</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>1.0685913880541168E-2</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>8.3432823472428114E-3</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E14">
+        <v>73659.311799116171</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="7"/>
+        <v>7.323083878973188</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="8"/>
+        <v>6.9875964225723397</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>9.8325430079699017E-3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>7.3183097091893603E-3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="2"/>
         <v>0.96153846153846145</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="G14" s="3">
-        <f t="shared" si="6"/>
-        <v>3067.8511508747415</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="7"/>
-        <v>73659.311799116171</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="9"/>
-        <v>7.323083878973188</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="G15" s="3">
         <f t="shared" si="10"/>
-        <v>6.9875964225723397</v>
-      </c>
-      <c r="L14" s="3">
+        <v>3417.5928310957688</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>9.8325430079699017E-3</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>7.3183097091893603E-3</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E15">
+        <v>80129.859084532596</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="7"/>
+        <v>7.9634913160863361</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="8"/>
+        <v>7.5909885375833159</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>9.0506671288468257E-3</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>6.425595860743572E-3</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="2"/>
         <v>0.96153846153846145</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="G15" s="3">
-        <f t="shared" si="6"/>
-        <v>3417.5928310957688</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="7"/>
-        <v>80129.859084532596</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" si="9"/>
-        <v>7.9634913160863361</v>
-      </c>
-      <c r="K15" s="5">
+      <c r="G16" s="3">
         <f t="shared" si="10"/>
-        <v>7.5909885375833159</v>
-      </c>
-      <c r="L15" s="3">
+        <v>3730.3686120249326</v>
+      </c>
+      <c r="H16" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>9.0506671288468257E-3</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>6.425595860743572E-3</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>0.96153846153846145</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="5"/>
-        <v>10000</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="6"/>
-        <v>3730.3686120249326</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="7"/>
         <v>86350.606156612572</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8.5792921678141383</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>8.1738428953822897</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2799,27 +2983,27 @@
         <v>10000</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4005.6960380344071</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>92337.437123264463</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9.1721524971494706</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>8.73782918567092</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2849,27 +3033,27 @@
         <v>10000</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4244.2569087928505</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>98104.303415697825</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9.7435153547054512</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9.284282323075681</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2899,27 +3083,27 @@
         <v>10000</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4447.5285443960347</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>103663.51983057085</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10.294636929692146</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9.8142760216298814</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2949,27 +3133,27 @@
         <v>10000</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4617.5101638284568</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>109026.01307178303</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10.826616951008786</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10.328680270379278</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2999,27 +3183,27 @@
         <v>10000</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4756.5204000194299</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>114201.53081166396</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>11.340424153472608</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10.828206408066318</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3049,27 +3233,27 @@
         <v>10000</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4867.0482677942073</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>119198.81782598812</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>11.83691755592902</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>11.313442574106215</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3099,27 +3283,27 @@
         <v>10000</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4951.6444411240209</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>124025.76458413318</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>12.316864211009822</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>11.784881641583953</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3149,27 +3333,27 @@
         <v>10000</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5012.8430005153969</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>128689.53273181047</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>12.780953996559987</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>12.242943243268883</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3199,27 +3383,27 @@
         <v>10000</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5053.1062370192212</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>133196.66114061116</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>13.229811934183584</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>12.687991133517865</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3249,27 +3433,27 @@
         <v>10000</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5074.7868945634564</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>137553.1555785762</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>13.664008444459595</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>13.120346852392741</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3299,27 +3483,27 @@
         <v>10000</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5080.103571455883</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>141764.5645499021</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>14.084067882221911</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>13.54030044865284</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3349,27 +3533,27 @@
         <v>10000</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5071.1260083356829</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>145836.04343692338</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>14.490475638697722</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>13.948118857918903</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3399,27 +3583,27 @@
         <v>10000</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5049.7677515812429</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>149772.40873575202</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>14.88368404946419</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>14.344052408616566</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3449,27 +3633,27 @@
         <v>10000</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5017.784261481871</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>153578.18389429452</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>15.264117307085696</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>14.728339832149953</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3499,27 +3683,27 @@
         <v>10000</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4976.7749792047807</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>157257.63802662631</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>15.632175543862068</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>15.10121207844584</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3549,27 +3733,27 @@
         <v>10000</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4928.1882092206588</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>160814.81858199812</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>15.988238222338685</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>15.462895178621039</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3599,27 +3783,27 @@
         <v>10000</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4873.327939036596</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>164253.57888298063</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>16.332666948191946</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>15.813612349399451</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3649,27 +3833,27 @@
         <v>10000</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4813.3619241041952</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>167577.60130973329</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>16.66580780101561</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>16.153585496297065</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3699,27 +3883,27 @@
         <v>10000</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4749.330526288456</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>170790.41679152221</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>16.987993262718398</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>16.483036242429232</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3749,27 +3933,27 @@
         <v>10000</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4682.1559195932505</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>173895.42116870658</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>17.299543810132327</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>16.802186585494937</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3799,27 +3983,27 @@
         <v>10000</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4612.6513747553481</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>176895.88890544896</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>17.600769227549648</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>17.111259265843696</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3849,27 +4033,27 @@
         <v>10000</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4541.5304108157152</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>179794.98456292134</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>17.891969685861955</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>17.410477912592288</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3899,27 +4083,27 @@
         <v>10000</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4469.4156614556014</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>182595.77238276831</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>18.173436627444204</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>17.700067021797359</v>
       </c>
       <c r="L39" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3949,27 +4133,27 @@
         <v>10000</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4396.8473503135247</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>185301.22427938608</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J40" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>18.445453489643356</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>17.98025181013011</v>
       </c>
       <c r="L40" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3999,7 +4183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942F7716-BCC0-494B-A3AB-6345B1A7A3A9}">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="107" workbookViewId="0">
+    <sheetView zoomScale="107" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
